--- a/web-platform_22_02_dev/static/media/uploads/idea/files/Машинное_зрение.xlsx
+++ b/web-platform_22_02_dev/static/media/uploads/idea/files/Машинное_зрение.xlsx
@@ -1,26 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Цена, за 1 единицу</t>
+  </si>
+  <si>
+    <t>Количество, шт</t>
+  </si>
+  <si>
+    <t>POE-коммутатор, Tp-link TL-SG1016PE 16-port Gigabit присвоение</t>
+  </si>
+  <si>
+    <t>https://shop.kz/offer/switch-16-port-tp-link-tl-sg1016pe/</t>
+  </si>
+  <si>
+    <t>POE-коммутатор 600670 - Коммутатор DES-1008P (8 портов 10/100Base-TX (4 порта с поддержкой РоЕ)</t>
+  </si>
+  <si>
+    <t>562371- Видеокамера уличная Dahua IP IPC-HFW1210TP-L-0280B</t>
+  </si>
+  <si>
+    <t>Сеть Ethernet 110063- Кабель витая пара ParLan F/UTP cat 5e 4x2x0.52 V/PE</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Итого, с компенсацией</t>
+  </si>
+  <si>
+    <r>
+      <t>560861 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Корпус металлический 395х310х220 ЩПМ-1-0 36УХЛ3</t>
+    </r>
+  </si>
+  <si>
+    <t>562735 - Прожектор светодиодный СДО 06-50 IP65 6500K черный IEK</t>
+  </si>
+  <si>
+    <t>562688 - Выключатель автоматический EASY 9 2P 10A (С)</t>
+  </si>
+  <si>
+    <t>562368 - Коробка открытого монтажа KSC 11-302 (65*65*40) (110)</t>
+  </si>
+  <si>
+    <t>110193 - Провод ШВВП 2х0,75</t>
+  </si>
+  <si>
+    <t>IP видеокамера Hikvision DS-2CD2083G0-I DS-2CD2083G0-I (2.8mm) (Цилиндрическая, Уличная, Проводная, 2.8 мм, 1/2.5”, 8 Мп ~ 3840×2160 4K UHD или Ultra HD) присвоение</t>
+  </si>
+  <si>
+    <t>https://www.apltech.kz/tovar/165710/dahua-hac-hfw2401ep-hac-hfw2401ep</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения анализа объём и массы на сортовых бункерах</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения гранулометрического анализа</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения анализа сходов на 26 операции</t>
+  </si>
+  <si>
+    <t>Запланировано</t>
+  </si>
+  <si>
+    <t>Разница</t>
+  </si>
+  <si>
+    <t>601087 - Блок системный (Core i5-10400F/iB460/16GB 2666MHz x2/SSD 240GB/1TB/GTX-1650/БП600W)</t>
+  </si>
+  <si>
+    <t>600905 - Мышь USB "Logitech B100" черного цвета</t>
+  </si>
+  <si>
+    <t>600895 - UPS SVC V-1200-L</t>
+  </si>
+  <si>
+    <t>602248 - Клавиатура USB</t>
+  </si>
+  <si>
+    <t>600795 - Система операционная Win Pro 10 64Bit Russian 1pk DSP OEI Kazakhstan Only DVD</t>
+  </si>
+  <si>
+    <t>601091 - Монитор 22" Samsung LF22T350FHIXCI 1920x108016:9 IPS 75ГЦ (HDMI+VGA) Black</t>
+  </si>
+  <si>
+    <t>Первый проект: план</t>
+  </si>
+  <si>
+    <t>Первый проект: факт</t>
+  </si>
+  <si>
+    <t>Второй проект: план</t>
+  </si>
+  <si>
+    <t>Второй проект: факт</t>
+  </si>
+  <si>
+    <t>Третий проект: план</t>
+  </si>
+  <si>
+    <t>Третий проект: факт</t>
+  </si>
+  <si>
+    <t>600169 - Коннектор RJ 45</t>
+  </si>
+  <si>
+    <t>560341-Розетка наружней установки (двойная)</t>
+  </si>
+  <si>
+    <t>Перфоратор аккумуляторный ALTECO CRH 18-20 Li</t>
+  </si>
+  <si>
+    <t>https://www.tssp.kz/akkumulyatornyy-perforator-alteco-crh-18-20-li.html</t>
+  </si>
+  <si>
+    <t>https://www.komfort.kz/building-materials/stroitel-noe-oborudovanie/lestnicy/lestnica-teleskopicheskaja-2-h-sekc-aljum-156-320sm-2h5-stup-11-1kg-startul-st9733-032.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лестница телескопическая 2-х секционная алюминиевая 156/320см, 2х5 ступ. 11,1кг STARTUL (ST9733-032) </t>
+  </si>
+  <si>
+    <t>Видеорегистратор DHI-NVR4816-4KS2 16 канальный 4K 2U H.265 (до 8Мп) № карточки: 601013</t>
+  </si>
+  <si>
+    <t>Диск жесткий внутренний Toshiba S300 HDWT380UZSVA (8 Тб, 3.5 дюйма, SATA, HDD (классические)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +183,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,17 +273,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,9 +407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -79,44 +417,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,9 +487,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -190,153 +528,1575 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="8.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5">
+        <v>419300</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <f>C3*D3</f>
+        <v>419300</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>74980</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>74980</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>36778</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E8" si="0">C5*D5</f>
+        <v>36778</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2192</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>2192</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1978</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>54000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="35">
+        <v>75000</v>
+      </c>
+      <c r="D9" s="36">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:E26" si="1">C9*D9</f>
+        <v>150000</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>16500</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>165000</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
+        <v>21875</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>218750</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>290</v>
+      </c>
+      <c r="D13" s="6">
+        <v>915</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>265350</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2828</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>8484</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5600</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>50400</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6">
+        <v>11550</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>34650</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
+        <v>300</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
+        <v>106</v>
+      </c>
+      <c r="D18" s="6">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>5300</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="21">
+        <v>50</v>
+      </c>
+      <c r="D19" s="21">
+        <v>300</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="21">
+        <v>500</v>
+      </c>
+      <c r="D20" s="21">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="36">
+        <v>13</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="36">
+        <v>72000</v>
+      </c>
+      <c r="D21" s="36">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>72000</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>14</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="35">
+        <v>48000</v>
+      </c>
+      <c r="D23" s="36">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="27">
+        <v>182680</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="1"/>
+        <v>182680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>16</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="27">
+        <v>106800</v>
+      </c>
+      <c r="D26" s="27">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="1"/>
+        <v>106800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="14">
+        <f>SUM(E3:E26)</f>
+        <v>1919642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="14">
+        <f>E27+(E27/100*30)</f>
+        <v>2495534.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="14">
+        <f>E28-E29</f>
+        <v>1395534.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="35">
+        <v>75000</v>
+      </c>
+      <c r="D34" s="36">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" ref="E34:E45" si="2">C34*D34</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>16500</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="2"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="5">
+        <v>80254</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="2"/>
+        <v>80254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>290</v>
+      </c>
+      <c r="D39" s="6">
+        <v>305</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="2"/>
+        <v>88450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2828</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="2"/>
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5600</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="2"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="6">
+        <v>11550</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="2"/>
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6">
+        <v>300</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6">
+        <v>106</v>
+      </c>
+      <c r="D44" s="6">
+        <v>10</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="2"/>
+        <v>1060</v>
+      </c>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="14">
+        <f>SUM(E34:E45)</f>
+        <v>281542</v>
+      </c>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="14">
+        <f>E46+(E46/100*30)</f>
+        <v>366004.6</v>
+      </c>
+      <c r="M47" s="21"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7">
+        <v>800000</v>
+      </c>
+      <c r="M48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="14">
+        <f>E47-E48</f>
+        <v>-433995.4</v>
+      </c>
+      <c r="M49" s="20"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="14"/>
+      <c r="M50" s="20"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A51" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="M51" s="20"/>
+    </row>
+    <row r="52" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="20"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="34">
+        <v>1</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="35">
+        <v>75000</v>
+      </c>
+      <c r="D53" s="36">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" ref="E53:E56" si="3">C53*D53</f>
+        <v>75000</v>
+      </c>
+      <c r="M53" s="20"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="20"/>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5">
+        <v>16500</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="3"/>
+        <v>16500</v>
+      </c>
+      <c r="M55" s="20"/>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="5">
+        <v>80254</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="3"/>
+        <v>80254</v>
+      </c>
+      <c r="K56" s="25"/>
+      <c r="M56" s="20"/>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="K57" s="25"/>
+      <c r="M57" s="21"/>
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5">
+        <v>290</v>
+      </c>
+      <c r="D58" s="6">
+        <v>305</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" ref="E58:E64" si="4">C58*D58</f>
+        <v>88450</v>
+      </c>
+      <c r="K58" s="25"/>
+      <c r="M58" s="21"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2828</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="4"/>
+        <v>2828</v>
+      </c>
+      <c r="K59" s="26"/>
+      <c r="M59" s="20"/>
+      <c r="O59" s="10"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="5">
+        <v>5600</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="4"/>
+        <v>5600</v>
+      </c>
+      <c r="K60" s="26"/>
+      <c r="M60" s="21"/>
+      <c r="O60" s="10"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="6">
+        <v>11550</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="4"/>
+        <v>11550</v>
+      </c>
+      <c r="K61" s="25"/>
+      <c r="M61" s="21"/>
+      <c r="O61" s="10"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="6">
+        <v>300</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="K62" s="25"/>
+      <c r="M62" s="20"/>
+      <c r="O62" s="10"/>
+    </row>
+    <row r="63" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="6">
+        <v>106</v>
+      </c>
+      <c r="D63" s="6">
+        <v>10</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="4"/>
+        <v>1060</v>
+      </c>
+      <c r="K63" s="25"/>
+      <c r="M63" s="20"/>
+      <c r="O63" s="10"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="25"/>
+      <c r="M64" s="10"/>
+      <c r="O64" s="10"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="14">
+        <f>SUM(E53:E64)</f>
+        <v>281542</v>
+      </c>
+      <c r="K65" s="25"/>
+      <c r="M65" s="10"/>
+      <c r="O65" s="10"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="14">
+        <f>E65+(E65/100*30)</f>
+        <v>366004.6</v>
+      </c>
+      <c r="K66" s="25"/>
+      <c r="M66" s="10"/>
+      <c r="O66" s="10"/>
+    </row>
+    <row r="67" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7">
+        <v>800000</v>
+      </c>
+      <c r="K67" s="25"/>
+      <c r="M67" s="11"/>
+      <c r="O67" s="11"/>
+    </row>
+    <row r="68" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="13"/>
+      <c r="B68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="14">
+        <f>E66-E67</f>
+        <v>-433995.4</v>
+      </c>
+      <c r="H68" s="31"/>
+      <c r="K68" s="25"/>
+      <c r="M68" s="11"/>
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="14"/>
+      <c r="K69" s="26"/>
+      <c r="M69" s="10"/>
+      <c r="O69" s="10"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
+      <c r="B70" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="29">
+        <f>SUM(E46,E65,E27)</f>
+        <v>2482726</v>
+      </c>
+      <c r="K70" s="26"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="1">
+        <f>E28+E47+E66</f>
+        <v>3227543.8000000003</v>
+      </c>
+      <c r="K71" s="25"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="1">
+        <f>E29+E48+E67</f>
+        <v>2700000</v>
+      </c>
+      <c r="K72" s="26"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="1">
+        <f>E30+E49+E68</f>
+        <v>527543.80000000005</v>
+      </c>
+      <c r="K73" s="26"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C79" s="17">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="1">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C83" s="18">
+        <v>-630000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="18">
+        <v>-630000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D96" s="26"/>
+    </row>
+    <row r="97" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D97" s="25"/>
+    </row>
+    <row r="98" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C98" s="25"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+    </row>
+    <row r="99" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+    </row>
+    <row r="100" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="26"/>
+    </row>
+    <row r="101" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C101" s="26"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+    </row>
+    <row r="102" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C102" s="26"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+    </row>
+    <row r="104" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C104" s="25"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="25"/>
+    </row>
+    <row r="105" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C105" s="25"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="25"/>
+    </row>
+    <row r="106" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C106" s="25"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+    </row>
+    <row r="107" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C107" s="25"/>
+      <c r="E107" s="26"/>
+    </row>
+    <row r="108" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C108" s="25"/>
+      <c r="E108" s="26"/>
+    </row>
+    <row r="109" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C109" s="25"/>
+    </row>
+    <row r="110" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C110" s="25"/>
+    </row>
+    <row r="111" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C111" s="26"/>
+    </row>
+    <row r="112" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C112" s="26"/>
+    </row>
+    <row r="113" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C113" s="25"/>
+    </row>
+    <row r="114" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C114" s="26"/>
+    </row>
+    <row r="115" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C115" s="26"/>
+    </row>
+    <row r="116" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C116" s="25"/>
+    </row>
+    <row r="117" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C117" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B35" r:id="rId2"/>
+    <hyperlink ref="B38" r:id="rId3"/>
+    <hyperlink ref="B54" r:id="rId4"/>
+    <hyperlink ref="B57" r:id="rId5"/>
+    <hyperlink ref="B22" r:id="rId6"/>
+    <hyperlink ref="B23" r:id="rId7" display="https://www.komfort.kz/building-materials/stroitel-noe-oborudovanie/lestnicy/lestnica-teleskopicheskaja-2-h-sekc-aljum-156-320sm-2h5-stup-11-1kg-startul-st9733-032.html"/>
+    <hyperlink ref="B24" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>